--- a/bio_diversity/static/data_templates/mactaquac-electrofishing.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-electrofishing.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -451,28 +451,24 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -481,6 +477,9 @@
         <v>10</v>
       </c>
       <c r="H1" s="8"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">

--- a/bio_diversity/static/data_templates/mactaquac-electrofishing.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-electrofishing.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
+    <sheet name="Sample Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Crew</t>
   </si>
   <si>
-    <t># Parr Collected</t>
-  </si>
-  <si>
     <t>Location Name</t>
   </si>
   <si>
@@ -57,19 +55,64 @@
     <t>Voltage</t>
   </si>
   <si>
-    <t># Parr Observed</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
     <t>Fishing seconds</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t># Fish Observed</t>
+  </si>
+  <si>
+    <t># Fish Collected</t>
+  </si>
+  <si>
+    <t>Fishing Settings</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>CD, EF, GH</t>
+  </si>
+  <si>
+    <t>Fall Parr</t>
+  </si>
+  <si>
+    <t>(WS)</t>
+  </si>
+  <si>
+    <t>DC 36%, 60 Hz</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Covered Bridg</t>
+  </si>
+  <si>
+    <t>Destination Tank:</t>
+  </si>
+  <si>
+    <t>LP21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,16 +205,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,40 +504,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -492,46 +556,264 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>4.5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3">
+        <v>352</v>
+      </c>
+      <c r="R3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>45.549657145988803</v>
+      </c>
+      <c r="H4">
+        <v>-65.014224771258498</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>3.2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4">
+        <v>800</v>
+      </c>
+      <c r="R4">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bio_diversity/static/data_templates/mactaquac-electrofishing.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-electrofishing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>LP21</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Odell</t>
   </si>
 </sst>
 </file>
@@ -208,20 +214,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,48 +510,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,35 +588,38 @@
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="9"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D4" s="9"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -622,51 +633,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,31 +713,34 @@
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -735,7 +750,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>0.35416666666666669</v>
       </c>
       <c r="E3" t="s">
@@ -748,25 +763,28 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>18</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>4.5</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>352</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>555</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -776,7 +794,7 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>0.59722222222222221</v>
       </c>
       <c r="E4" t="s">
@@ -791,22 +809,22 @@
       <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>5</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3.2</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>23</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>800</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>540</v>
       </c>
     </row>
